--- a/docs/project_management/Verfugbarkeiten_fur_Terminfindung.xlsx
+++ b/docs/project_management/Verfugbarkeiten_fur_Terminfindung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca Meißner\Documents\Uni\3. Semester\SE Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwowng/Downloads/Semester 4/I151 Software Engineering II/SE-Projekt-I3/docs/project_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0301F02-6FA6-48AE-BC01-93253819F1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9229E5-885E-774A-A952-708740A6B0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48912840-9D31-4CC3-BBAC-A6B4A740312F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{48912840-9D31-4CC3-BBAC-A6B4A740312F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="18">
   <si>
     <t>Gerade Woche</t>
   </si>
@@ -354,7 +354,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{780831E3-1365-4982-93B2-5CC88C5089C1}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -669,18 +669,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA5EB42-1634-4FA2-8359-D1D97A2A3933}">
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M54" sqref="M54"/>
+      <selection pane="topRight" activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="AR1" s="8"/>
       <c r="AS1" s="9"/>
     </row>
-    <row r="2" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -860,7 +860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>0.3125</v>
       </c>
@@ -923,13 +923,11 @@
       <c r="AR3" s="14"/>
       <c r="AS3" s="15"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="16"/>
       <c r="C4" s="14"/>
       <c r="D4" s="17" t="s">
         <v>3</v>
@@ -981,9 +979,7 @@
         <v>3</v>
       </c>
       <c r="AA4" s="15"/>
-      <c r="AC4" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC4" s="16"/>
       <c r="AD4" s="14"/>
       <c r="AE4" s="17" t="s">
         <v>3</v>
@@ -997,9 +993,7 @@
       <c r="AH4" s="33"/>
       <c r="AI4" s="14"/>
       <c r="AJ4" s="15"/>
-      <c r="AL4" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AL4" s="16"/>
       <c r="AM4" s="17" t="s">
         <v>3</v>
       </c>
@@ -1014,13 +1008,11 @@
       <c r="AR4" s="14"/>
       <c r="AS4" s="15"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B5" s="16"/>
       <c r="C5" s="14"/>
       <c r="D5" s="17" t="s">
         <v>3</v>
@@ -1072,9 +1064,7 @@
         <v>3</v>
       </c>
       <c r="AA5" s="15"/>
-      <c r="AC5" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC5" s="16"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="17" t="s">
         <v>3</v>
@@ -1088,9 +1078,7 @@
       <c r="AH5" s="33"/>
       <c r="AI5" s="14"/>
       <c r="AJ5" s="15"/>
-      <c r="AL5" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AL5" s="16"/>
       <c r="AM5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1093,7 @@
       <c r="AR5" s="14"/>
       <c r="AS5" s="15"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>0.375</v>
       </c>
@@ -1125,7 +1113,9 @@
         <v>3</v>
       </c>
       <c r="I6" s="15"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
@@ -1149,9 +1139,7 @@
         <v>3</v>
       </c>
       <c r="AA6" s="15"/>
-      <c r="AC6" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC6" s="16"/>
       <c r="AD6" s="14"/>
       <c r="AE6" s="14" t="s">
         <v>3</v>
@@ -1167,9 +1155,7 @@
         <v>3</v>
       </c>
       <c r="AJ6" s="15"/>
-      <c r="AL6" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AL6" s="16"/>
       <c r="AM6" s="17" t="s">
         <v>3</v>
       </c>
@@ -1186,7 +1172,7 @@
       <c r="AR6" s="14"/>
       <c r="AS6" s="15"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>0.39583333333333298</v>
       </c>
@@ -1226,9 +1212,7 @@
         <v>3</v>
       </c>
       <c r="AA7" s="15"/>
-      <c r="AC7" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC7" s="16"/>
       <c r="AD7" s="14"/>
       <c r="AE7" s="14" t="s">
         <v>3</v>
@@ -1244,9 +1228,7 @@
         <v>3</v>
       </c>
       <c r="AJ7" s="15"/>
-      <c r="AL7" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AL7" s="16"/>
       <c r="AM7" s="14"/>
       <c r="AN7" s="17" t="s">
         <v>3</v>
@@ -1263,7 +1245,7 @@
       <c r="AR7" s="14"/>
       <c r="AS7" s="15"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>0.41666666666666702</v>
       </c>
@@ -1303,9 +1285,7 @@
         <v>3</v>
       </c>
       <c r="AA8" s="15"/>
-      <c r="AC8" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC8" s="23"/>
       <c r="AD8" s="14"/>
       <c r="AE8" s="14" t="s">
         <v>3</v>
@@ -1325,9 +1305,7 @@
       <c r="AJ8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AL8" s="16"/>
       <c r="AM8" s="14"/>
       <c r="AN8" s="17" t="s">
         <v>3</v>
@@ -1346,7 +1324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>0.4375</v>
       </c>
@@ -1386,9 +1364,7 @@
         <v>3</v>
       </c>
       <c r="AA9" s="15"/>
-      <c r="AC9" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC9" s="23"/>
       <c r="AD9" s="14"/>
       <c r="AE9" s="14" t="s">
         <v>3</v>
@@ -1408,9 +1384,7 @@
       <c r="AJ9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AL9" s="16"/>
       <c r="AM9" s="14"/>
       <c r="AN9" s="17" t="s">
         <v>3</v>
@@ -1427,7 +1401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>0.45833333333333298</v>
       </c>
@@ -1471,9 +1445,7 @@
         <v>3</v>
       </c>
       <c r="AA10" s="15"/>
-      <c r="AC10" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC10" s="23"/>
       <c r="AD10" s="14"/>
       <c r="AE10" s="14" t="s">
         <v>3</v>
@@ -1493,9 +1465,7 @@
       <c r="AJ10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AL10" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AL10" s="16"/>
       <c r="AM10" s="14"/>
       <c r="AN10" s="14"/>
       <c r="AO10" s="14" t="s">
@@ -1512,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>0.47916666666666702</v>
       </c>
@@ -1556,9 +1526,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="15"/>
-      <c r="AC11" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC11" s="23"/>
       <c r="AD11" s="14"/>
       <c r="AE11" s="14" t="s">
         <v>3</v>
@@ -1578,9 +1546,7 @@
       <c r="AJ11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AL11" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AL11" s="16"/>
       <c r="AM11" s="14"/>
       <c r="AN11" s="14"/>
       <c r="AO11" s="14" t="s">
@@ -1597,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>0.5</v>
       </c>
@@ -1615,7 +1581,9 @@
         <v>3</v>
       </c>
       <c r="I12" s="15"/>
-      <c r="K12" s="23"/>
+      <c r="K12" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14" t="s">
@@ -1639,9 +1607,7 @@
         <v>3</v>
       </c>
       <c r="AA12" s="15"/>
-      <c r="AC12" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC12" s="23"/>
       <c r="AD12" s="14"/>
       <c r="AE12" s="14" t="s">
         <v>3</v>
@@ -1661,9 +1627,7 @@
       <c r="AJ12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AL12" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AL12" s="16"/>
       <c r="AM12" s="17" t="s">
         <v>3</v>
       </c>
@@ -1682,7 +1646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
@@ -1700,7 +1664,9 @@
         <v>3</v>
       </c>
       <c r="I13" s="15"/>
-      <c r="K13" s="23"/>
+      <c r="K13" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14" t="s">
@@ -1724,9 +1690,7 @@
         <v>3</v>
       </c>
       <c r="AA13" s="15"/>
-      <c r="AC13" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC13" s="23"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14" t="s">
         <v>3</v>
@@ -1767,13 +1731,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="17" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1753,9 @@
       <c r="I14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="23"/>
+      <c r="K14" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L14" s="17" t="s">
         <v>3</v>
       </c>
@@ -1819,9 +1783,7 @@
         <v>3</v>
       </c>
       <c r="AA14" s="15"/>
-      <c r="AC14" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC14" s="23"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="14" t="s">
         <v>3</v>
@@ -1858,13 +1820,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="17" t="s">
         <v>3</v>
       </c>
@@ -1882,7 +1842,9 @@
       <c r="I15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="23"/>
+      <c r="K15" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L15" s="17" t="s">
         <v>3</v>
       </c>
@@ -1910,9 +1872,7 @@
         <v>3</v>
       </c>
       <c r="AA15" s="15"/>
-      <c r="AC15" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC15" s="23"/>
       <c r="AD15" s="14"/>
       <c r="AE15" s="14" t="s">
         <v>3</v>
@@ -1951,13 +1911,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="17" t="s">
         <v>3</v>
       </c>
@@ -1975,7 +1933,9 @@
       <c r="I16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="23"/>
+      <c r="K16" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L16" s="17" t="s">
         <v>3</v>
       </c>
@@ -2003,9 +1963,7 @@
         <v>3</v>
       </c>
       <c r="AA16" s="15"/>
-      <c r="AC16" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC16" s="23"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14" t="s">
@@ -2042,13 +2000,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="17" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2020,9 @@
       <c r="I17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="23"/>
+      <c r="K17" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L17" s="17" t="s">
         <v>3</v>
       </c>
@@ -2092,9 +2050,7 @@
         <v>3</v>
       </c>
       <c r="AA17" s="15"/>
-      <c r="AC17" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC17" s="23"/>
       <c r="AD17" s="17" t="s">
         <v>3</v>
       </c>
@@ -2133,13 +2089,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>0.625</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
         <v>3</v>
@@ -2226,13 +2180,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14" t="s">
         <v>3</v>
@@ -2325,13 +2277,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
         <v>3</v>
@@ -2428,13 +2378,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14" t="s">
         <v>3</v>
@@ -2533,11 +2481,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -2601,7 +2549,9 @@
       <c r="AA22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC22" s="23"/>
+      <c r="AC22" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD22" s="17" t="s">
         <v>3</v>
       </c>
@@ -2638,11 +2588,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>0.72916666666666596</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -2706,7 +2656,9 @@
       <c r="AA23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC23" s="23"/>
+      <c r="AC23" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD23" s="17" t="s">
         <v>3</v>
       </c>
@@ -2743,11 +2695,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>0.75</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -2809,7 +2761,9 @@
       <c r="AA24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC24" s="23"/>
+      <c r="AC24" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
@@ -2842,11 +2796,11 @@
       </c>
       <c r="AS24" s="15"/>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>0.77083333333333304</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="17" t="s">
@@ -2910,7 +2864,9 @@
       <c r="AA25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC25" s="23"/>
+      <c r="AC25" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD25" s="14"/>
       <c r="AE25" s="14" t="s">
         <v>3</v>
@@ -2945,11 +2901,11 @@
       </c>
       <c r="AS25" s="15"/>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="17" t="s">
@@ -3011,7 +2967,9 @@
       <c r="AA26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC26" s="23"/>
+      <c r="AC26" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14" t="s">
         <v>3</v>
@@ -3046,11 +3004,11 @@
       </c>
       <c r="AS26" s="15"/>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>0.8125</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -3147,11 +3105,11 @@
       </c>
       <c r="AS27" s="15"/>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="17" t="s">
@@ -3244,11 +3202,11 @@
       </c>
       <c r="AS28" s="15"/>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>0.85416666666666596</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -3305,11 +3263,13 @@
       <c r="AR29" s="14"/>
       <c r="AS29" s="15"/>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>0.875</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="C30" s="17" t="s">
         <v>3</v>
       </c>
@@ -3319,7 +3279,9 @@
       <c r="G30" s="35"/>
       <c r="H30" s="14"/>
       <c r="I30" s="15"/>
-      <c r="K30" s="23"/>
+      <c r="K30" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L30" s="17" t="s">
         <v>3</v>
       </c>
@@ -3329,7 +3291,9 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="15"/>
-      <c r="T30" s="23"/>
+      <c r="T30" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="U30" s="17" t="s">
         <v>3</v>
       </c>
@@ -3339,7 +3303,9 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="15"/>
-      <c r="AC30" s="23"/>
+      <c r="AC30" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
@@ -3347,7 +3313,9 @@
       <c r="AH30" s="14"/>
       <c r="AI30" s="14"/>
       <c r="AJ30" s="15"/>
-      <c r="AL30" s="23"/>
+      <c r="AL30" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="AM30" s="14"/>
       <c r="AN30" s="14"/>
       <c r="AO30" s="14"/>
@@ -3356,11 +3324,13 @@
       <c r="AR30" s="14"/>
       <c r="AS30" s="15"/>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>0.89583333333333304</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="C31" s="17" t="s">
         <v>3</v>
       </c>
@@ -3370,7 +3340,9 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
-      <c r="K31" s="23"/>
+      <c r="K31" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L31" s="17" t="s">
         <v>3</v>
       </c>
@@ -3380,7 +3352,9 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="15"/>
-      <c r="T31" s="23"/>
+      <c r="T31" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="U31" s="17" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3364,9 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="15"/>
-      <c r="AC31" s="23"/>
+      <c r="AC31" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
@@ -3398,7 +3374,9 @@
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="15"/>
-      <c r="AL31" s="23"/>
+      <c r="AL31" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="AM31" s="14"/>
       <c r="AN31" s="14"/>
       <c r="AO31" s="14"/>
@@ -3407,7 +3385,7 @@
       <c r="AR31" s="14"/>
       <c r="AS31" s="15"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>0.91666666666666596</v>
       </c>
@@ -3421,7 +3399,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
-      <c r="K32" s="19"/>
+      <c r="K32" s="31"/>
       <c r="L32" s="20" t="s">
         <v>3</v>
       </c>
@@ -3458,8 +3436,8 @@
       <c r="AR32" s="21"/>
       <c r="AS32" s="22"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -3518,7 +3496,7 @@
       <c r="AR34" s="8"/>
       <c r="AS34" s="9"/>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B35" s="10" t="s">
         <v>4</v>
       </c>
@@ -3644,7 +3622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>0.3125</v>
       </c>
@@ -3713,13 +3691,11 @@
       <c r="AR36" s="30"/>
       <c r="AS36" s="15"/>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B37" s="16"/>
       <c r="C37" s="17" t="s">
         <v>3</v>
       </c>
@@ -3775,9 +3751,7 @@
         <v>3</v>
       </c>
       <c r="AA37" s="15"/>
-      <c r="AC37" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC37" s="16"/>
       <c r="AD37" s="17" t="s">
         <v>3</v>
       </c>
@@ -3812,13 +3786,11 @@
       <c r="AR37" s="30"/>
       <c r="AS37" s="15"/>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B38" s="16"/>
       <c r="C38" s="17" t="s">
         <v>3</v>
       </c>
@@ -3874,9 +3846,7 @@
         <v>3</v>
       </c>
       <c r="AA38" s="15"/>
-      <c r="AC38" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC38" s="16"/>
       <c r="AD38" s="17" t="s">
         <v>3</v>
       </c>
@@ -3911,7 +3881,7 @@
       <c r="AR38" s="30"/>
       <c r="AS38" s="15"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>0.375</v>
       </c>
@@ -3957,9 +3927,7 @@
         <v>3</v>
       </c>
       <c r="AA39" s="15"/>
-      <c r="AC39" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC39" s="16"/>
       <c r="AD39" s="17" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +3962,7 @@
       <c r="AR39" s="30"/>
       <c r="AS39" s="15"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>0.39583333333333298</v>
       </c>
@@ -4034,9 +4002,7 @@
         <v>3</v>
       </c>
       <c r="AA40" s="15"/>
-      <c r="AC40" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC40" s="16"/>
       <c r="AD40" s="14"/>
       <c r="AE40" s="14" t="s">
         <v>3</v>
@@ -4069,7 +4035,7 @@
       <c r="AR40" s="30"/>
       <c r="AS40" s="15"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>0.41666666666666702</v>
       </c>
@@ -4109,9 +4075,7 @@
         <v>3</v>
       </c>
       <c r="AA41" s="15"/>
-      <c r="AC41" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC41" s="23"/>
       <c r="AD41" s="14"/>
       <c r="AE41" s="14" t="s">
         <v>3</v>
@@ -4148,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>0.4375</v>
       </c>
@@ -4188,9 +4152,7 @@
         <v>3</v>
       </c>
       <c r="AA42" s="15"/>
-      <c r="AC42" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC42" s="23"/>
       <c r="AD42" s="14"/>
       <c r="AE42" s="14" t="s">
         <v>3</v>
@@ -4225,7 +4187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>0.45833333333333298</v>
       </c>
@@ -4271,9 +4233,7 @@
         <v>3</v>
       </c>
       <c r="AA43" s="15"/>
-      <c r="AC43" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC43" s="23"/>
       <c r="AD43" s="14"/>
       <c r="AE43" s="14" t="s">
         <v>3</v>
@@ -4310,7 +4270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>0.47916666666666702</v>
       </c>
@@ -4356,9 +4316,7 @@
         <v>3</v>
       </c>
       <c r="AA44" s="15"/>
-      <c r="AC44" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC44" s="23"/>
       <c r="AD44" s="14"/>
       <c r="AE44" s="14" t="s">
         <v>3</v>
@@ -4395,7 +4353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>0.5</v>
       </c>
@@ -4443,9 +4401,7 @@
         <v>3</v>
       </c>
       <c r="AA45" s="15"/>
-      <c r="AC45" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC45" s="23"/>
       <c r="AD45" s="14"/>
       <c r="AE45" s="14" t="s">
         <v>3</v>
@@ -4482,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>0.52083333333333304</v>
       </c>
@@ -4530,9 +4486,7 @@
         <v>3</v>
       </c>
       <c r="AA46" s="15"/>
-      <c r="AC46" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC46" s="23"/>
       <c r="AD46" s="14"/>
       <c r="AE46" s="14" t="s">
         <v>3</v>
@@ -4569,13 +4523,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="B47" s="23"/>
       <c r="C47" s="14"/>
       <c r="D47" s="29"/>
       <c r="E47" s="14" t="s">
@@ -4587,7 +4539,9 @@
       <c r="I47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="23"/>
+      <c r="K47" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L47" s="17" t="s">
         <v>3</v>
       </c>
@@ -4625,9 +4579,7 @@
       <c r="AA47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC47" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC47" s="23"/>
       <c r="AD47" s="17" t="s">
         <v>3</v>
       </c>
@@ -4666,13 +4618,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="B48" s="23"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14" t="s">
         <v>3</v>
@@ -4686,7 +4636,9 @@
       <c r="I48" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="23"/>
+      <c r="K48" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L48" s="17" t="s">
         <v>3</v>
       </c>
@@ -4724,9 +4676,7 @@
       <c r="AA48" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC48" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC48" s="23"/>
       <c r="AD48" s="17" t="s">
         <v>3</v>
       </c>
@@ -4765,13 +4715,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="B49" s="23"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14" t="s">
         <v>3</v>
@@ -4787,7 +4735,9 @@
       <c r="I49" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="23"/>
+      <c r="K49" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L49" s="17" t="s">
         <v>3</v>
       </c>
@@ -4827,9 +4777,7 @@
       <c r="AA49" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC49" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC49" s="23"/>
       <c r="AD49" s="17" t="s">
         <v>3</v>
       </c>
@@ -4866,13 +4814,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="B50" s="23"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14" t="s">
         <v>3</v>
@@ -4888,7 +4834,9 @@
       <c r="I50" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K50" s="23"/>
+      <c r="K50" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L50" s="17" t="s">
         <v>3</v>
       </c>
@@ -4926,9 +4874,7 @@
       <c r="AA50" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC50" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC50" s="23"/>
       <c r="AD50" s="17" t="s">
         <v>3</v>
       </c>
@@ -4965,13 +4911,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>0.625</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="B51" s="23"/>
       <c r="C51" s="17" t="s">
         <v>3</v>
       </c>
@@ -5066,13 +5010,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B52" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="B52" s="23"/>
       <c r="C52" s="17" t="s">
         <v>3</v>
       </c>
@@ -5167,13 +5109,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="B53" s="23"/>
       <c r="C53" s="17" t="s">
         <v>3</v>
       </c>
@@ -5266,13 +5206,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="B54" s="23"/>
       <c r="C54" s="17" t="s">
         <v>3</v>
       </c>
@@ -5369,7 +5307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>0.70833333333333304</v>
       </c>
@@ -5431,7 +5369,9 @@
       <c r="AA55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC55" s="23"/>
+      <c r="AC55" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD55" s="17" t="s">
         <v>3</v>
       </c>
@@ -5468,7 +5408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>0.72916666666666596</v>
       </c>
@@ -5530,7 +5470,9 @@
       <c r="AA56" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC56" s="23"/>
+      <c r="AC56" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD56" s="17" t="s">
         <v>3</v>
       </c>
@@ -5567,7 +5509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>0.75</v>
       </c>
@@ -5633,7 +5575,9 @@
       <c r="AA57" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC57" s="23"/>
+      <c r="AC57" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD57" s="17" t="s">
         <v>3</v>
       </c>
@@ -5668,7 +5612,7 @@
       </c>
       <c r="AS57" s="15"/>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>0.77083333333333304</v>
       </c>
@@ -5732,7 +5676,9 @@
       <c r="AA58" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC58" s="23"/>
+      <c r="AC58" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD58" s="14"/>
       <c r="AE58" s="14" t="s">
         <v>3</v>
@@ -5769,7 +5715,7 @@
       </c>
       <c r="AS58" s="15"/>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>0.79166666666666596</v>
       </c>
@@ -5835,7 +5781,9 @@
       <c r="AA59" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC59" s="23"/>
+      <c r="AC59" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD59" s="14"/>
       <c r="AE59" s="14" t="s">
         <v>3</v>
@@ -5872,7 +5820,7 @@
       </c>
       <c r="AS59" s="15"/>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>0.8125</v>
       </c>
@@ -5975,7 +5923,7 @@
       </c>
       <c r="AS60" s="15"/>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>0.83333333333333304</v>
       </c>
@@ -6074,7 +6022,7 @@
       </c>
       <c r="AS61" s="15"/>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>0.85416666666666596</v>
       </c>
@@ -6137,11 +6085,13 @@
       <c r="AR62" s="30"/>
       <c r="AS62" s="15"/>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>0.875</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="C63" s="17" t="s">
         <v>3</v>
       </c>
@@ -6151,7 +6101,9 @@
       <c r="G63" s="33"/>
       <c r="H63" s="30"/>
       <c r="I63" s="15"/>
-      <c r="K63" s="23"/>
+      <c r="K63" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L63" s="17" t="s">
         <v>3</v>
       </c>
@@ -6161,7 +6113,9 @@
       <c r="P63" s="33"/>
       <c r="Q63" s="30"/>
       <c r="R63" s="15"/>
-      <c r="T63" s="23"/>
+      <c r="T63" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="U63" s="17" t="s">
         <v>3</v>
       </c>
@@ -6171,7 +6125,9 @@
       <c r="Y63" s="14"/>
       <c r="Z63" s="30"/>
       <c r="AA63" s="15"/>
-      <c r="AC63" s="23"/>
+      <c r="AC63" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD63" s="17" t="s">
         <v>3</v>
       </c>
@@ -6190,11 +6146,13 @@
       <c r="AR63" s="14"/>
       <c r="AS63" s="15"/>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>0.89583333333333304</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="C64" s="17" t="s">
         <v>3</v>
       </c>
@@ -6204,7 +6162,9 @@
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="15"/>
-      <c r="K64" s="23"/>
+      <c r="K64" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="L64" s="17" t="s">
         <v>3</v>
       </c>
@@ -6214,7 +6174,9 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
       <c r="R64" s="15"/>
-      <c r="T64" s="23"/>
+      <c r="T64" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="U64" s="17" t="s">
         <v>3</v>
       </c>
@@ -6224,7 +6186,9 @@
       <c r="Y64" s="14"/>
       <c r="Z64" s="30"/>
       <c r="AA64" s="15"/>
-      <c r="AC64" s="23"/>
+      <c r="AC64" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="AD64" s="17" t="s">
         <v>3</v>
       </c>
@@ -6243,7 +6207,7 @@
       <c r="AR64" s="14"/>
       <c r="AS64" s="15"/>
     </row>
-    <row r="65" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>0.91666666666666596</v>
       </c>
@@ -6296,12 +6260,12 @@
       <c r="AR65" s="21"/>
       <c r="AS65" s="22"/>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
       <c r="D66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
       <c r="M67" s="1"/>
     </row>
   </sheetData>

--- a/docs/project_management/Verfugbarkeiten_fur_Terminfindung.xlsx
+++ b/docs/project_management/Verfugbarkeiten_fur_Terminfindung.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JensRosenkranz/Desktop/HTW/___03 Semester/SE I/SE-Projekt-I3/docs/project_management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF5CBAF-CF9C-5545-ABB3-C92DAEE51C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,95 +25,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="19">
   <si>
-    <t xml:space="preserve">Gerade Woche</t>
+    <t>Gerade Woche</t>
   </si>
   <si>
-    <t xml:space="preserve">Montag</t>
+    <t>Montag</t>
   </si>
   <si>
-    <t xml:space="preserve">Dienstag</t>
+    <t>Dienstag</t>
   </si>
   <si>
-    <t xml:space="preserve">Mittwoch</t>
+    <t>Mittwoch</t>
   </si>
   <si>
-    <t xml:space="preserve">Donnerstag</t>
+    <t>Donnerstag</t>
   </si>
   <si>
-    <t xml:space="preserve">Freitag</t>
+    <t>Freitag</t>
   </si>
   <si>
-    <t xml:space="preserve">Uhrzeit</t>
+    <t>Uhrzeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Ha</t>
+    <t>Ha</t>
   </si>
   <si>
-    <t xml:space="preserve">Pascal</t>
+    <t>Pascal</t>
   </si>
   <si>
-    <t xml:space="preserve">Jens</t>
+    <t>Jens</t>
   </si>
   <si>
-    <t xml:space="preserve">Nico</t>
+    <t>Nico</t>
   </si>
   <si>
-    <t xml:space="preserve">Roman</t>
+    <t>Roman</t>
   </si>
   <si>
-    <t xml:space="preserve">Patrick</t>
+    <t>Patrick</t>
   </si>
   <si>
-    <t xml:space="preserve">Jakob</t>
+    <t>Jakob</t>
   </si>
   <si>
-    <t xml:space="preserve">Luca</t>
+    <t>Luca</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">Ungerade Woche</t>
+    <t>Ungerade Woche</t>
   </si>
   <si>
-    <t xml:space="preserve">X = verfügbar</t>
+    <t>X = verfügbar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -118,7 +107,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -135,259 +124,518 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Standard 2" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AV67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="107" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB55" sqref="AB55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="45" min="2" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="17.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="47" style="1" width="11.42"/>
+    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
+    <col min="2" max="45" width="11.5" style="1"/>
+    <col min="46" max="46" width="17.6640625" style="1" customWidth="1"/>
+    <col min="47" max="1024" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -442,7 +690,7 @@
       <c r="AR1" s="4"/>
       <c r="AS1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -574,8 +822,8 @@
       <c r="AU2" s="11"/>
       <c r="AV2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>0.3125</v>
       </c>
       <c r="B3" s="14"/>
@@ -638,9 +886,9 @@
       <c r="AS3" s="17"/>
       <c r="AT3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>0.333333333333333</v>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>0.33333333333333298</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>15</v>
@@ -678,9 +926,7 @@
         <v>15</v>
       </c>
       <c r="U4" s="15"/>
-      <c r="V4" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V4" s="15"/>
       <c r="W4" s="15" t="s">
         <v>15</v>
       </c>
@@ -696,9 +942,7 @@
         <v>15</v>
       </c>
       <c r="AD4" s="15"/>
-      <c r="AE4" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE4" s="15"/>
       <c r="AF4" s="15" t="s">
         <v>15</v>
       </c>
@@ -730,9 +974,9 @@
       <c r="AS4" s="17"/>
       <c r="AT4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
-        <v>0.354166666666667</v>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>0.35416666666666702</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>15</v>
@@ -770,9 +1014,7 @@
         <v>15</v>
       </c>
       <c r="U5" s="15"/>
-      <c r="V5" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V5" s="15"/>
       <c r="W5" s="15" t="s">
         <v>15</v>
       </c>
@@ -788,9 +1030,7 @@
         <v>15</v>
       </c>
       <c r="AD5" s="15"/>
-      <c r="AE5" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE5" s="15"/>
       <c r="AF5" s="15" t="s">
         <v>15</v>
       </c>
@@ -822,8 +1062,8 @@
       <c r="AS5" s="17"/>
       <c r="AT5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>0.375</v>
       </c>
       <c r="B6" s="14"/>
@@ -852,9 +1092,7 @@
       <c r="R6" s="17"/>
       <c r="T6" s="14"/>
       <c r="U6" s="15"/>
-      <c r="V6" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V6" s="15"/>
       <c r="W6" s="15" t="s">
         <v>15</v>
       </c>
@@ -868,9 +1106,7 @@
         <v>15</v>
       </c>
       <c r="AD6" s="15"/>
-      <c r="AE6" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE6" s="15"/>
       <c r="AF6" s="15" t="s">
         <v>15</v>
       </c>
@@ -886,9 +1122,7 @@
       <c r="AM6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AN6" s="15"/>
       <c r="AO6" s="15" t="s">
         <v>15</v>
       </c>
@@ -902,9 +1136,9 @@
       <c r="AS6" s="17"/>
       <c r="AT6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
-        <v>0.395833333333333</v>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>0.39583333333333298</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -942,9 +1176,7 @@
         <v>15</v>
       </c>
       <c r="AD7" s="15"/>
-      <c r="AE7" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE7" s="15"/>
       <c r="AF7" s="15" t="s">
         <v>15</v>
       </c>
@@ -958,9 +1190,7 @@
         <v>15</v>
       </c>
       <c r="AM7" s="15"/>
-      <c r="AN7" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AN7" s="15"/>
       <c r="AO7" s="15" t="s">
         <v>15</v>
       </c>
@@ -976,9 +1206,9 @@
       <c r="AS7" s="17"/>
       <c r="AT7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
-        <v>0.416666666666667</v>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>0.41666666666666702</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
@@ -1016,9 +1246,7 @@
         <v>15</v>
       </c>
       <c r="AD8" s="15"/>
-      <c r="AE8" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE8" s="15"/>
       <c r="AF8" s="15" t="s">
         <v>15</v>
       </c>
@@ -1036,9 +1264,7 @@
         <v>15</v>
       </c>
       <c r="AM8" s="15"/>
-      <c r="AN8" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AN8" s="15"/>
       <c r="AO8" s="15" t="s">
         <v>15</v>
       </c>
@@ -1056,8 +1282,8 @@
       </c>
       <c r="AT8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>0.4375</v>
       </c>
       <c r="B9" s="14"/>
@@ -1096,9 +1322,7 @@
         <v>15</v>
       </c>
       <c r="AD9" s="15"/>
-      <c r="AE9" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE9" s="15"/>
       <c r="AF9" s="15" t="s">
         <v>15</v>
       </c>
@@ -1116,9 +1340,7 @@
         <v>15</v>
       </c>
       <c r="AM9" s="15"/>
-      <c r="AN9" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AN9" s="15"/>
       <c r="AO9" s="15" t="s">
         <v>15</v>
       </c>
@@ -1134,9 +1356,9 @@
       </c>
       <c r="AT9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
-        <v>0.458333333333333</v>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>0.45833333333333298</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -1178,9 +1400,7 @@
         <v>15</v>
       </c>
       <c r="AD10" s="15"/>
-      <c r="AE10" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE10" s="15"/>
       <c r="AF10" s="15" t="s">
         <v>15</v>
       </c>
@@ -1216,9 +1436,9 @@
       </c>
       <c r="AT10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
-        <v>0.479166666666667</v>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -1234,7 +1454,9 @@
       <c r="I11" s="17"/>
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="N11" s="15" t="s">
         <v>15</v>
       </c>
@@ -1260,9 +1482,7 @@
         <v>15</v>
       </c>
       <c r="AD11" s="15"/>
-      <c r="AE11" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE11" s="15"/>
       <c r="AF11" s="15" t="s">
         <v>15</v>
       </c>
@@ -1298,8 +1518,8 @@
       </c>
       <c r="AT11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>0.5</v>
       </c>
       <c r="B12" s="14"/>
@@ -1316,7 +1536,9 @@
       <c r="I12" s="17"/>
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="M12" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="N12" s="15" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1550,9 @@
       <c r="R12" s="17"/>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
+      <c r="V12" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="W12" s="15" t="s">
         <v>15</v>
       </c>
@@ -1340,9 +1564,7 @@
         <v>15</v>
       </c>
       <c r="AD12" s="15"/>
-      <c r="AE12" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE12" s="15"/>
       <c r="AF12" s="15" t="s">
         <v>15</v>
       </c>
@@ -1380,9 +1602,9 @@
       </c>
       <c r="AT12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
-        <v>0.520833333333333</v>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>0.52083333333333304</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -1398,7 +1620,9 @@
       <c r="I13" s="17"/>
       <c r="K13" s="14"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="M13" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="N13" s="15" t="s">
         <v>15</v>
       </c>
@@ -1410,7 +1634,9 @@
       <c r="R13" s="17"/>
       <c r="T13" s="14"/>
       <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
+      <c r="V13" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="W13" s="15" t="s">
         <v>15</v>
       </c>
@@ -1422,9 +1648,7 @@
         <v>15</v>
       </c>
       <c r="AD13" s="15"/>
-      <c r="AE13" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE13" s="15"/>
       <c r="AF13" s="15" t="s">
         <v>15</v>
       </c>
@@ -1462,9 +1686,9 @@
       </c>
       <c r="AT13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
-        <v>0.541666666666666</v>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>0.54166666666666596</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>15</v>
@@ -1490,7 +1714,9 @@
       <c r="L14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="15"/>
+      <c r="M14" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="N14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1516,9 +1742,7 @@
         <v>15</v>
       </c>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE14" s="15"/>
       <c r="AF14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1776,8 @@
       </c>
       <c r="AT14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>0.5625</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -1580,7 +1804,9 @@
       <c r="L15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="15"/>
+      <c r="M15" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="N15" s="15" t="s">
         <v>15</v>
       </c>
@@ -1606,9 +1832,7 @@
         <v>15</v>
       </c>
       <c r="AD15" s="15"/>
-      <c r="AE15" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE15" s="15"/>
       <c r="AF15" s="15" t="s">
         <v>15</v>
       </c>
@@ -1644,9 +1868,9 @@
       </c>
       <c r="AT15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
-        <v>0.583333333333333</v>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>0.58333333333333304</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>15</v>
@@ -1672,7 +1896,9 @@
       <c r="L16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="15"/>
+      <c r="M16" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="N16" s="15" t="s">
         <v>15</v>
       </c>
@@ -1734,9 +1960,9 @@
       </c>
       <c r="AT16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
-        <v>0.604166666666666</v>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>0.60416666666666596</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>15</v>
@@ -1760,7 +1986,9 @@
       <c r="L17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="15"/>
+      <c r="M17" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="N17" s="15" t="s">
         <v>15</v>
       </c>
@@ -1824,8 +2052,8 @@
       </c>
       <c r="AT17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
         <v>0.625</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -1850,7 +2078,7 @@
       <c r="L18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="15" t="s">
         <v>15</v>
       </c>
@@ -1916,9 +2144,9 @@
       </c>
       <c r="AT18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
-        <v>0.645833333333333</v>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>0.64583333333333304</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>15</v>
@@ -1944,9 +2172,7 @@
       <c r="L19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="M19" s="15"/>
       <c r="N19" s="15" t="s">
         <v>15</v>
       </c>
@@ -2016,9 +2242,9 @@
       </c>
       <c r="AT19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
-        <v>0.666666666666666</v>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>0.66666666666666596</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>15</v>
@@ -2044,9 +2270,7 @@
       <c r="L20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="20" t="s">
-        <v>15</v>
-      </c>
+      <c r="M20" s="20"/>
       <c r="N20" s="20" t="s">
         <v>15</v>
       </c>
@@ -2120,8 +2344,8 @@
       </c>
       <c r="AT20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
         <v>0.6875</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -2226,9 +2450,9 @@
       </c>
       <c r="AT21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
-        <v>0.708333333333333</v>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>0.70833333333333304</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>15</v>
@@ -2330,9 +2554,9 @@
       </c>
       <c r="AT22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
-        <v>0.729166666666666</v>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>0.72916666666666596</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>15</v>
@@ -2434,8 +2658,8 @@
       </c>
       <c r="AT23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
         <v>0.75</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -2500,7 +2724,9 @@
       </c>
       <c r="AC24" s="14"/>
       <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
+      <c r="AE24" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="16" t="s">
@@ -2532,9 +2758,9 @@
       <c r="AS24" s="17"/>
       <c r="AT24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
-        <v>0.770833333333333</v>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>0.77083333333333304</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>15</v>
@@ -2636,9 +2862,9 @@
       <c r="AS25" s="17"/>
       <c r="AT25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
-        <v>0.791666666666666</v>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>0.79166666666666596</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>15</v>
@@ -2738,8 +2964,8 @@
       <c r="AS26" s="17"/>
       <c r="AT26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
         <v>0.8125</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -2840,9 +3066,9 @@
       <c r="AS27" s="17"/>
       <c r="AT27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
-        <v>0.833333333333333</v>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>0.83333333333333304</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>15</v>
@@ -2938,9 +3164,9 @@
       <c r="AS28" s="17"/>
       <c r="AT28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
-        <v>0.854166666666666</v>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>0.85416666666666596</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>15</v>
@@ -3008,8 +3234,8 @@
       <c r="AS29" s="17"/>
       <c r="AT29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
         <v>0.875</v>
       </c>
       <c r="B30" s="14"/>
@@ -3069,9 +3295,9 @@
       <c r="AS30" s="17"/>
       <c r="AT30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
-        <v>0.895833333333333</v>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>0.89583333333333304</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="15" t="s">
@@ -3131,9 +3357,9 @@
       <c r="AS31" s="17"/>
       <c r="AT31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
-        <v>0.916666666666666</v>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>0.91666666666666596</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="24" t="s">
@@ -3193,8 +3419,7 @@
       <c r="AS32" s="25"/>
       <c r="AT32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
@@ -3254,7 +3479,7 @@
       <c r="AS34" s="5"/>
       <c r="AT34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="7" t="s">
         <v>7</v>
@@ -3382,8 +3607,8 @@
       </c>
       <c r="AT35" s="26"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
         <v>0.3125</v>
       </c>
       <c r="B36" s="14"/>
@@ -3450,9 +3675,9 @@
       <c r="AS36" s="17"/>
       <c r="AT36" s="13"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
-        <v>0.333333333333333</v>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>0.33333333333333298</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>15</v>
@@ -3460,9 +3685,7 @@
       <c r="C37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
         <v>15</v>
       </c>
@@ -3494,9 +3717,7 @@
       <c r="U37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V37" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V37" s="15"/>
       <c r="W37" s="15" t="s">
         <v>15</v>
       </c>
@@ -3514,9 +3735,7 @@
       <c r="AD37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE37" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE37" s="15"/>
       <c r="AF37" s="15" t="s">
         <v>15</v>
       </c>
@@ -3548,9 +3767,9 @@
       <c r="AS37" s="17"/>
       <c r="AT37" s="13"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
-        <v>0.354166666666667</v>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
+        <v>0.35416666666666702</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>15</v>
@@ -3558,9 +3777,7 @@
       <c r="C38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
         <v>15</v>
       </c>
@@ -3592,9 +3809,7 @@
       <c r="U38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V38" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V38" s="15"/>
       <c r="W38" s="15" t="s">
         <v>15</v>
       </c>
@@ -3612,9 +3827,7 @@
       <c r="AD38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE38" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE38" s="15"/>
       <c r="AF38" s="15" t="s">
         <v>15</v>
       </c>
@@ -3646,17 +3859,15 @@
       <c r="AS38" s="17"/>
       <c r="AT38" s="13"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
         <v>0.375</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="D39" s="15"/>
       <c r="E39" s="15" t="s">
         <v>15</v>
       </c>
@@ -3678,9 +3889,7 @@
       <c r="U39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V39" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V39" s="15"/>
       <c r="W39" s="15" t="s">
         <v>15</v>
       </c>
@@ -3696,9 +3905,7 @@
       <c r="AD39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE39" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE39" s="15"/>
       <c r="AF39" s="15" t="s">
         <v>15</v>
       </c>
@@ -3712,9 +3919,7 @@
         <v>15</v>
       </c>
       <c r="AM39" s="15"/>
-      <c r="AN39" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AN39" s="15"/>
       <c r="AO39" s="15" t="s">
         <v>15</v>
       </c>
@@ -3728,9 +3933,9 @@
       <c r="AS39" s="17"/>
       <c r="AT39" s="13"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
-        <v>0.395833333333333</v>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>0.39583333333333298</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="15" t="s">
@@ -3770,9 +3975,7 @@
         <v>15</v>
       </c>
       <c r="AD40" s="15"/>
-      <c r="AE40" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE40" s="15"/>
       <c r="AF40" s="15" t="s">
         <v>15</v>
       </c>
@@ -3786,9 +3989,7 @@
         <v>15</v>
       </c>
       <c r="AM40" s="15"/>
-      <c r="AN40" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AN40" s="15"/>
       <c r="AO40" s="15" t="s">
         <v>15</v>
       </c>
@@ -3802,9 +4003,9 @@
       <c r="AS40" s="17"/>
       <c r="AT40" s="13"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
-        <v>0.416666666666667</v>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
+        <v>0.41666666666666702</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="15" t="s">
@@ -3844,9 +4045,7 @@
         <v>15</v>
       </c>
       <c r="AD41" s="15"/>
-      <c r="AE41" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE41" s="15"/>
       <c r="AF41" s="15" t="s">
         <v>15</v>
       </c>
@@ -3862,9 +4061,7 @@
         <v>15</v>
       </c>
       <c r="AM41" s="15"/>
-      <c r="AN41" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AN41" s="15"/>
       <c r="AO41" s="15" t="s">
         <v>15</v>
       </c>
@@ -3880,8 +4077,8 @@
       </c>
       <c r="AT41" s="13"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
         <v>0.4375</v>
       </c>
       <c r="B42" s="14"/>
@@ -3922,9 +4119,7 @@
         <v>15</v>
       </c>
       <c r="AD42" s="15"/>
-      <c r="AE42" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE42" s="15"/>
       <c r="AF42" s="15" t="s">
         <v>15</v>
       </c>
@@ -3956,9 +4151,9 @@
       </c>
       <c r="AT42" s="13"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
-        <v>0.458333333333333</v>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
+        <v>0.45833333333333298</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="15" t="s">
@@ -3976,9 +4171,7 @@
       <c r="L43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="M43" s="15"/>
       <c r="N43" s="15" t="s">
         <v>15</v>
       </c>
@@ -3990,9 +4183,7 @@
       <c r="R43" s="17"/>
       <c r="T43" s="14"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V43" s="15"/>
       <c r="W43" s="15" t="s">
         <v>15</v>
       </c>
@@ -4004,9 +4195,7 @@
         <v>15</v>
       </c>
       <c r="AD43" s="15"/>
-      <c r="AE43" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE43" s="15"/>
       <c r="AF43" s="15" t="s">
         <v>15</v>
       </c>
@@ -4040,15 +4229,17 @@
       </c>
       <c r="AT43" s="13"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
-        <v>0.479166666666667</v>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>0.47916666666666702</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="E44" s="15" t="s">
         <v>15</v>
       </c>
@@ -4060,9 +4251,7 @@
       <c r="L44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="M44" s="15"/>
       <c r="N44" s="15" t="s">
         <v>15</v>
       </c>
@@ -4074,9 +4263,7 @@
       <c r="R44" s="17"/>
       <c r="T44" s="14"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V44" s="15"/>
       <c r="W44" s="15" t="s">
         <v>15</v>
       </c>
@@ -4088,9 +4275,7 @@
         <v>15</v>
       </c>
       <c r="AD44" s="15"/>
-      <c r="AE44" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE44" s="15"/>
       <c r="AF44" s="15" t="s">
         <v>15</v>
       </c>
@@ -4124,15 +4309,17 @@
       </c>
       <c r="AT44" s="13"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
         <v>0.5</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="E45" s="15" t="s">
         <v>15</v>
       </c>
@@ -4144,9 +4331,7 @@
       <c r="L45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="M45" s="15"/>
       <c r="N45" s="15" t="s">
         <v>15</v>
       </c>
@@ -4160,9 +4345,7 @@
       <c r="R45" s="17"/>
       <c r="T45" s="14"/>
       <c r="U45" s="15"/>
-      <c r="V45" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V45" s="15"/>
       <c r="W45" s="15" t="s">
         <v>15</v>
       </c>
@@ -4174,9 +4357,7 @@
         <v>15</v>
       </c>
       <c r="AD45" s="15"/>
-      <c r="AE45" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE45" s="15"/>
       <c r="AF45" s="15" t="s">
         <v>15</v>
       </c>
@@ -4210,15 +4391,17 @@
       </c>
       <c r="AT45" s="13"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
-        <v>0.520833333333333</v>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>0.52083333333333304</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="E46" s="15" t="s">
         <v>15</v>
       </c>
@@ -4230,9 +4413,7 @@
       <c r="L46" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="M46" s="15"/>
       <c r="N46" s="15" t="s">
         <v>15</v>
       </c>
@@ -4246,9 +4427,7 @@
       <c r="R46" s="17"/>
       <c r="T46" s="14"/>
       <c r="U46" s="15"/>
-      <c r="V46" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V46" s="15"/>
       <c r="W46" s="15" t="s">
         <v>15</v>
       </c>
@@ -4260,9 +4439,7 @@
         <v>15</v>
       </c>
       <c r="AD46" s="15"/>
-      <c r="AE46" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE46" s="15"/>
       <c r="AF46" s="15" t="s">
         <v>15</v>
       </c>
@@ -4296,15 +4473,17 @@
       </c>
       <c r="AT46" s="13"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
-        <v>0.541666666666666</v>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>0.54166666666666596</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="18"/>
+      <c r="D47" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="E47" s="15" t="s">
         <v>15</v>
       </c>
@@ -4318,9 +4497,7 @@
       <c r="L47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M47" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="M47" s="15"/>
       <c r="N47" s="15" t="s">
         <v>15</v>
       </c>
@@ -4340,9 +4517,7 @@
       <c r="U47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V47" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="V47" s="15"/>
       <c r="W47" s="15" t="s">
         <v>15</v>
       </c>
@@ -4358,9 +4533,7 @@
       <c r="AD47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE47" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE47" s="15"/>
       <c r="AF47" s="15" t="s">
         <v>15</v>
       </c>
@@ -4378,9 +4551,7 @@
       <c r="AM47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AN47" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AN47" s="15"/>
       <c r="AO47" s="15" t="s">
         <v>15</v>
       </c>
@@ -4396,8 +4567,8 @@
       </c>
       <c r="AT47" s="13"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
         <v>0.5625</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -4460,9 +4631,7 @@
       <c r="AD48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE48" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE48" s="15"/>
       <c r="AF48" s="15" t="s">
         <v>15</v>
       </c>
@@ -4498,9 +4667,9 @@
       </c>
       <c r="AT48" s="13"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
-        <v>0.583333333333333</v>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>0.58333333333333304</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>15</v>
@@ -4566,9 +4735,7 @@
       <c r="AD49" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE49" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE49" s="15"/>
       <c r="AF49" s="15" t="s">
         <v>15</v>
       </c>
@@ -4602,9 +4769,9 @@
       </c>
       <c r="AT49" s="13"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
-        <v>0.604166666666666</v>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>0.60416666666666596</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>15</v>
@@ -4668,9 +4835,7 @@
       <c r="AD50" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE50" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE50" s="15"/>
       <c r="AF50" s="15" t="s">
         <v>15</v>
       </c>
@@ -4686,7 +4851,7 @@
       <c r="AM50" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AN50" s="15" t="s">
+      <c r="AN50" s="31" t="s">
         <v>15</v>
       </c>
       <c r="AO50" s="15" t="s">
@@ -4704,8 +4869,8 @@
       </c>
       <c r="AT50" s="13"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
         <v>0.625</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -4732,9 +4897,7 @@
         <v>15</v>
       </c>
       <c r="L51" s="15"/>
-      <c r="M51" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="M51" s="15"/>
       <c r="N51" s="15" t="s">
         <v>15</v>
       </c>
@@ -4786,7 +4949,9 @@
       <c r="AM51" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AN51" s="15"/>
+      <c r="AN51" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="AO51" s="15" t="s">
         <v>15</v>
       </c>
@@ -4802,9 +4967,9 @@
       </c>
       <c r="AT51" s="13"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
-        <v>0.645833333333333</v>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>0.64583333333333304</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>15</v>
@@ -4832,9 +4997,7 @@
         <v>15</v>
       </c>
       <c r="L52" s="15"/>
-      <c r="M52" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="M52" s="15"/>
       <c r="N52" s="15" t="s">
         <v>15</v>
       </c>
@@ -4886,7 +5049,9 @@
       <c r="AM52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AN52" s="15"/>
+      <c r="AN52" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="AO52" s="15" t="s">
         <v>15</v>
       </c>
@@ -4902,9 +5067,9 @@
       </c>
       <c r="AT52" s="13"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
-        <v>0.666666666666666</v>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
+        <v>0.66666666666666596</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>15</v>
@@ -4932,9 +5097,7 @@
         <v>15</v>
       </c>
       <c r="L53" s="15"/>
-      <c r="M53" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="M53" s="15"/>
       <c r="N53" s="15" t="s">
         <v>15</v>
       </c>
@@ -4984,7 +5147,9 @@
         <v>15</v>
       </c>
       <c r="AM53" s="15"/>
-      <c r="AN53" s="15"/>
+      <c r="AN53" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="AO53" s="15" t="s">
         <v>15</v>
       </c>
@@ -5000,8 +5165,8 @@
       </c>
       <c r="AT53" s="13"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
         <v>0.6875</v>
       </c>
       <c r="B54" s="14" t="s">
@@ -5102,9 +5267,9 @@
       </c>
       <c r="AT54" s="13"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
-        <v>0.708333333333333</v>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>0.70833333333333304</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>15</v>
@@ -5198,9 +5363,9 @@
       </c>
       <c r="AT55" s="13"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
-        <v>0.729166666666666</v>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>0.72916666666666596</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>15</v>
@@ -5294,8 +5459,8 @@
       </c>
       <c r="AT56" s="13"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
         <v>0.75</v>
       </c>
       <c r="B57" s="14" t="s">
@@ -5360,7 +5525,9 @@
       <c r="AD57" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="18"/>
+      <c r="AE57" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="AF57" s="15"/>
       <c r="AG57" s="15"/>
       <c r="AH57" s="16" t="s">
@@ -5392,9 +5559,9 @@
       <c r="AS57" s="17"/>
       <c r="AT57" s="13"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="n">
-        <v>0.770833333333333</v>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>0.77083333333333304</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>15</v>
@@ -5494,9 +5661,9 @@
       <c r="AS58" s="17"/>
       <c r="AT58" s="13"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="n">
-        <v>0.791666666666666</v>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
+        <v>0.79166666666666596</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>15</v>
@@ -5598,8 +5765,8 @@
       <c r="AS59" s="17"/>
       <c r="AT59" s="13"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="n">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
         <v>0.8125</v>
       </c>
       <c r="B60" s="14" t="s">
@@ -5686,9 +5853,7 @@
         <v>15</v>
       </c>
       <c r="AM60" s="15"/>
-      <c r="AN60" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AN60" s="15"/>
       <c r="AO60" s="15"/>
       <c r="AP60" s="15" t="s">
         <v>15</v>
@@ -5702,9 +5867,9 @@
       <c r="AS60" s="17"/>
       <c r="AT60" s="13"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="n">
-        <v>0.833333333333333</v>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <v>0.83333333333333304</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>15</v>
@@ -5786,9 +5951,7 @@
         <v>15</v>
       </c>
       <c r="AM61" s="15"/>
-      <c r="AN61" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AN61" s="15"/>
       <c r="AO61" s="15"/>
       <c r="AP61" s="15" t="s">
         <v>15</v>
@@ -5802,9 +5965,9 @@
       <c r="AS61" s="17"/>
       <c r="AT61" s="13"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="n">
-        <v>0.854166666666666</v>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>0.85416666666666596</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>15</v>
@@ -5876,8 +6039,8 @@
       <c r="AS62" s="17"/>
       <c r="AT62" s="13"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
         <v>0.875</v>
       </c>
       <c r="B63" s="14"/>
@@ -5940,9 +6103,9 @@
       <c r="AS63" s="17"/>
       <c r="AT63" s="13"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="n">
-        <v>0.895833333333333</v>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>0.89583333333333304</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="15" t="s">
@@ -6004,9 +6167,9 @@
       <c r="AS64" s="17"/>
       <c r="AT64" s="13"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="n">
-        <v>0.916666666666666</v>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
+        <v>0.91666666666666596</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="24" t="s">
@@ -6068,24 +6231,19 @@
       <c r="AS65" s="25"/>
       <c r="AT65" s="13"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B66" s="29"/>
       <c r="D66" s="30"/>
       <c r="M66" s="30"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M67" s="30"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/docs/project_management/Verfugbarkeiten_fur_Terminfindung.xlsx
+++ b/docs/project_management/Verfugbarkeiten_fur_Terminfindung.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwowng/Downloads/Studium/I151 SE2/SE-Projekt-I3/docs/project_management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4AA28F-EA7F-904A-835F-391BBD532D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,74 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="19">
   <si>
-    <t xml:space="preserve">Gerade Woche</t>
+    <t>Gerade Woche</t>
   </si>
   <si>
-    <t xml:space="preserve">Montag</t>
+    <t>Montag</t>
   </si>
   <si>
-    <t xml:space="preserve">Dienstag</t>
+    <t>Dienstag</t>
   </si>
   <si>
-    <t xml:space="preserve">Mittwoch</t>
+    <t>Mittwoch</t>
   </si>
   <si>
-    <t xml:space="preserve">Donnerstag</t>
+    <t>Donnerstag</t>
   </si>
   <si>
-    <t xml:space="preserve">Freitag</t>
+    <t>Freitag</t>
   </si>
   <si>
-    <t xml:space="preserve">Uhrzeit</t>
+    <t>Uhrzeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Ha</t>
+    <t>Ha</t>
   </si>
   <si>
-    <t xml:space="preserve">Pascal</t>
+    <t>Pascal</t>
   </si>
   <si>
-    <t xml:space="preserve">Jens</t>
+    <t>Jens</t>
   </si>
   <si>
-    <t xml:space="preserve">Nico</t>
+    <t>Nico</t>
   </si>
   <si>
-    <t xml:space="preserve">Roman</t>
+    <t>Roman</t>
   </si>
   <si>
-    <t xml:space="preserve">Patrick</t>
+    <t>Patrick</t>
   </si>
   <si>
-    <t xml:space="preserve">Jakob</t>
+    <t>Jakob</t>
   </si>
   <si>
-    <t xml:space="preserve">Luca</t>
+    <t>Luca</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">Ungerade Woche</t>
+    <t>Ungerade Woche</t>
   </si>
   <si>
-    <t xml:space="preserve">X = verfügbar</t>
+    <t>X = verfügbar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,22 +100,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -128,210 +117,482 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A36" activeCellId="0" sqref="A36:A65"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC55" sqref="AC55:AC64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="3" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="3" width="17.72"/>
+    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="45" width="11.5" style="3" customWidth="1"/>
+    <col min="46" max="46" width="17.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -386,7 +647,7 @@
       <c r="AR1" s="6"/>
       <c r="AS1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -512,8 +773,8 @@
       </c>
       <c r="AT2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+    <row r="3" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>0.3125</v>
       </c>
       <c r="B3" s="12"/>
@@ -576,9 +837,9 @@
       <c r="AS3" s="14"/>
       <c r="AT3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
-        <v>0.333333333333333</v>
+    <row r="4" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>0.33333333333333298</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>15</v>
@@ -610,9 +871,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
-      <c r="T4" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="T4" s="12"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13" t="s">
@@ -626,9 +885,7 @@
         <v>15</v>
       </c>
       <c r="AA4" s="14"/>
-      <c r="AC4" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC4" s="12"/>
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
       <c r="AF4" s="13" t="s">
@@ -642,9 +899,7 @@
         <v>15</v>
       </c>
       <c r="AJ4" s="14"/>
-      <c r="AL4" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL4" s="12"/>
       <c r="AM4" s="13"/>
       <c r="AN4" s="13"/>
       <c r="AO4" s="13" t="s">
@@ -658,9 +913,9 @@
       <c r="AS4" s="14"/>
       <c r="AT4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
-        <v>0.354166666666667</v>
+    <row r="5" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>0.35416666666666702</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>15</v>
@@ -692,9 +947,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="14"/>
-      <c r="T5" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13" t="s">
@@ -708,9 +961,7 @@
         <v>15</v>
       </c>
       <c r="AA5" s="14"/>
-      <c r="AC5" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC5" s="12"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13" t="s">
@@ -724,9 +975,7 @@
         <v>15</v>
       </c>
       <c r="AJ5" s="14"/>
-      <c r="AL5" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL5" s="12"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="13" t="s">
@@ -740,8 +989,8 @@
       <c r="AS5" s="14"/>
       <c r="AT5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+    <row r="6" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>0.375</v>
       </c>
       <c r="B6" s="12"/>
@@ -780,9 +1029,7 @@
         <v>15</v>
       </c>
       <c r="AA6" s="14"/>
-      <c r="AC6" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC6" s="12"/>
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
       <c r="AF6" s="13" t="s">
@@ -794,9 +1041,7 @@
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="14"/>
-      <c r="AL6" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL6" s="12"/>
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
       <c r="AO6" s="13" t="s">
@@ -810,9 +1055,9 @@
       <c r="AS6" s="14"/>
       <c r="AT6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
-        <v>0.395833333333333</v>
+    <row r="7" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>0.39583333333333298</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -848,9 +1093,7 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="14"/>
-      <c r="AC7" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC7" s="12"/>
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13" t="s">
@@ -862,9 +1105,7 @@
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="14"/>
-      <c r="AL7" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL7" s="12"/>
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
       <c r="AO7" s="13" t="s">
@@ -880,9 +1121,9 @@
       <c r="AS7" s="14"/>
       <c r="AT7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
-        <v>0.416666666666667</v>
+    <row r="8" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>0.41666666666666702</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -918,9 +1159,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="14"/>
-      <c r="AC8" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC8" s="12"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13" t="s">
@@ -934,9 +1173,7 @@
       <c r="AJ8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL8" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL8" s="12"/>
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="13" t="s">
@@ -956,8 +1193,8 @@
       </c>
       <c r="AT8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+    <row r="9" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>0.4375</v>
       </c>
       <c r="B9" s="12"/>
@@ -994,9 +1231,7 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="14"/>
-      <c r="AC9" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC9" s="12"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13" t="s">
@@ -1010,9 +1245,7 @@
       <c r="AJ9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL9" s="12"/>
       <c r="AM9" s="13"/>
       <c r="AN9" s="13"/>
       <c r="AO9" s="13" t="s">
@@ -1030,9 +1263,9 @@
       </c>
       <c r="AT9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
-        <v>0.458333333333333</v>
+    <row r="10" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>0.45833333333333298</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -1070,9 +1303,7 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="14"/>
-      <c r="AC10" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC10" s="12"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13" t="s">
@@ -1088,9 +1319,7 @@
       <c r="AJ10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL10" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL10" s="12"/>
       <c r="AM10" s="13"/>
       <c r="AN10" s="13"/>
       <c r="AO10" s="13" t="s">
@@ -1108,9 +1337,9 @@
       </c>
       <c r="AT10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
-        <v>0.479166666666667</v>
+    <row r="11" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>0.47916666666666702</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -1150,9 +1379,7 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="14"/>
-      <c r="AC11" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC11" s="12"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13" t="s">
@@ -1168,9 +1395,7 @@
       <c r="AJ11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL11" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL11" s="12"/>
       <c r="AM11" s="13"/>
       <c r="AN11" s="13"/>
       <c r="AO11" s="13" t="s">
@@ -1188,8 +1413,8 @@
       </c>
       <c r="AT11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+    <row r="12" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>0.5</v>
       </c>
       <c r="B12" s="12"/>
@@ -1230,9 +1455,7 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="14"/>
-      <c r="AC12" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC12" s="12"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
       <c r="AF12" s="13" t="s">
@@ -1248,9 +1471,7 @@
       <c r="AJ12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL12" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL12" s="12"/>
       <c r="AM12" s="13"/>
       <c r="AN12" s="13"/>
       <c r="AO12" s="13" t="s">
@@ -1268,9 +1489,9 @@
       </c>
       <c r="AT12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
-        <v>0.520833333333333</v>
+    <row r="13" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>0.52083333333333304</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -1308,9 +1529,7 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="14"/>
-      <c r="AC13" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC13" s="12"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
       <c r="AF13" s="13" t="s">
@@ -1326,9 +1545,7 @@
       <c r="AJ13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL13" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL13" s="12"/>
       <c r="AM13" s="13"/>
       <c r="AN13" s="13"/>
       <c r="AO13" s="13" t="s">
@@ -1346,13 +1563,11 @@
       </c>
       <c r="AT13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="14" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
@@ -1396,9 +1611,7 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="14"/>
-      <c r="AC14" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC14" s="12"/>
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
       <c r="AF14" s="13" t="s">
@@ -1432,13 +1645,11 @@
       </c>
       <c r="AT14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
+    <row r="15" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>0.5625</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1482,9 +1693,7 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="14"/>
-      <c r="AC15" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC15" s="12"/>
       <c r="AD15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1522,13 +1731,11 @@
       </c>
       <c r="AT15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="16" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
         <v>15</v>
       </c>
@@ -1572,9 +1779,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="14"/>
-      <c r="AC16" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC16" s="12"/>
       <c r="AD16" s="13" t="s">
         <v>15</v>
       </c>
@@ -1612,13 +1817,11 @@
       </c>
       <c r="AT16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="17" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
@@ -1660,9 +1863,7 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="14"/>
-      <c r="AC17" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC17" s="12"/>
       <c r="AD17" s="13" t="s">
         <v>15</v>
       </c>
@@ -1700,13 +1901,11 @@
       </c>
       <c r="AT17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+    <row r="18" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>0.625</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
         <v>15</v>
@@ -1788,13 +1987,11 @@
       </c>
       <c r="AT18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="19" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
         <v>15</v>
@@ -1880,13 +2077,11 @@
       </c>
       <c r="AT19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
-        <v>0.666666666666666</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="20" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
         <v>15</v>
@@ -1976,13 +2171,11 @@
       </c>
       <c r="AT20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
+    <row r="21" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
         <v>15</v>
@@ -2076,9 +2269,9 @@
       </c>
       <c r="AT21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
-        <v>0.708333333333333</v>
+    <row r="22" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>0.70833333333333304</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>15</v>
@@ -2138,7 +2331,9 @@
       <c r="AA22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="12"/>
+      <c r="AC22" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD22" s="13" t="s">
         <v>15</v>
       </c>
@@ -2176,9 +2371,9 @@
       </c>
       <c r="AT22" s="11"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
-        <v>0.729166666666666</v>
+    <row r="23" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>0.72916666666666596</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>15</v>
@@ -2238,7 +2433,9 @@
       <c r="AA23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC23" s="12"/>
+      <c r="AC23" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
@@ -2274,8 +2471,8 @@
       </c>
       <c r="AT23" s="11"/>
     </row>
-    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
+    <row r="24" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <v>0.75</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -2338,7 +2535,9 @@
       <c r="AA24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC24" s="12"/>
+      <c r="AC24" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="13" t="s">
         <v>15</v>
@@ -2374,9 +2573,9 @@
       <c r="AS24" s="14"/>
       <c r="AT24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="n">
-        <v>0.770833333333333</v>
+    <row r="25" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>0.77083333333333304</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>15</v>
@@ -2440,7 +2639,9 @@
       <c r="AA25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC25" s="12"/>
+      <c r="AC25" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD25" s="13"/>
       <c r="AE25" s="13" t="s">
         <v>15</v>
@@ -2478,9 +2679,9 @@
       <c r="AS25" s="14"/>
       <c r="AT25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
-        <v>0.791666666666666</v>
+    <row r="26" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>0.79166666666666596</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>15</v>
@@ -2546,7 +2747,9 @@
       <c r="AA26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC26" s="12"/>
+      <c r="AC26" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13" t="s">
         <v>15</v>
@@ -2582,8 +2785,8 @@
       <c r="AS26" s="14"/>
       <c r="AT26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
+    <row r="27" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <v>0.8125</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -2686,9 +2889,9 @@
       <c r="AS27" s="14"/>
       <c r="AT27" s="11"/>
     </row>
-    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
-        <v>0.833333333333333</v>
+    <row r="28" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>0.83333333333333304</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>15</v>
@@ -2782,9 +2985,9 @@
       <c r="AS28" s="14"/>
       <c r="AT28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
-        <v>0.854166666666666</v>
+    <row r="29" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>0.85416666666666596</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>15</v>
@@ -2850,8 +3053,8 @@
       <c r="AS29" s="14"/>
       <c r="AT29" s="11"/>
     </row>
-    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
+    <row r="30" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
         <v>0.875</v>
       </c>
       <c r="B30" s="12"/>
@@ -2887,7 +3090,9 @@
         <v>15</v>
       </c>
       <c r="AA30" s="14"/>
-      <c r="AC30" s="12"/>
+      <c r="AC30" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
       <c r="AF30" s="13"/>
@@ -2909,9 +3114,9 @@
       <c r="AS30" s="14"/>
       <c r="AT30" s="11"/>
     </row>
-    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="n">
-        <v>0.895833333333333</v>
+    <row r="31" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>0.89583333333333304</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="13" t="s">
@@ -2947,7 +3152,9 @@
         <v>15</v>
       </c>
       <c r="AA31" s="14"/>
-      <c r="AC31" s="12"/>
+      <c r="AC31" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
       <c r="AF31" s="13"/>
@@ -2969,9 +3176,9 @@
       <c r="AS31" s="14"/>
       <c r="AT31" s="11"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="n">
-        <v>0.916666666666666</v>
+    <row r="32" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>0.91666666666666596</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="17" t="s">
@@ -3029,8 +3236,8 @@
       <c r="AS32" s="18"/>
       <c r="AT32" s="11"/>
     </row>
-    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -3090,7 +3297,7 @@
       <c r="AS34" s="7"/>
       <c r="AT34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>7</v>
       </c>
@@ -3216,7 +3423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="13"/>
@@ -3278,9 +3485,9 @@
       <c r="AS36" s="14"/>
       <c r="AT36" s="11"/>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="n">
-        <v>0.333333333333333</v>
+    <row r="37" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>0.33333333333333298</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>15</v>
@@ -3308,9 +3515,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="14"/>
-      <c r="T37" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="T37" s="12"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13" t="s">
@@ -3324,9 +3529,7 @@
         <v>15</v>
       </c>
       <c r="AA37" s="14"/>
-      <c r="AC37" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC37" s="12"/>
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
       <c r="AF37" s="13" t="s">
@@ -3340,9 +3543,7 @@
         <v>15</v>
       </c>
       <c r="AJ37" s="14"/>
-      <c r="AL37" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL37" s="12"/>
       <c r="AM37" s="13" t="s">
         <v>15</v>
       </c>
@@ -3360,9 +3561,9 @@
       <c r="AS37" s="14"/>
       <c r="AT37" s="11"/>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="n">
-        <v>0.354166666666667</v>
+    <row r="38" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>0.35416666666666702</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>15</v>
@@ -3390,9 +3591,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="14"/>
-      <c r="T38" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="T38" s="12"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13" t="s">
@@ -3406,9 +3605,7 @@
         <v>15</v>
       </c>
       <c r="AA38" s="14"/>
-      <c r="AC38" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC38" s="12"/>
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
       <c r="AF38" s="13" t="s">
@@ -3422,9 +3619,7 @@
         <v>15</v>
       </c>
       <c r="AJ38" s="14"/>
-      <c r="AL38" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL38" s="12"/>
       <c r="AM38" s="13" t="s">
         <v>15</v>
       </c>
@@ -3442,8 +3637,8 @@
       <c r="AS38" s="14"/>
       <c r="AT38" s="11"/>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="n">
+    <row r="39" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
         <v>0.375</v>
       </c>
       <c r="B39" s="12"/>
@@ -3478,9 +3673,7 @@
         <v>15</v>
       </c>
       <c r="AA39" s="14"/>
-      <c r="AC39" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC39" s="12"/>
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
       <c r="AF39" s="13" t="s">
@@ -3492,9 +3685,7 @@
       <c r="AH39" s="13"/>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="14"/>
-      <c r="AL39" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL39" s="12"/>
       <c r="AM39" s="13" t="s">
         <v>15</v>
       </c>
@@ -3512,9 +3703,9 @@
       <c r="AS39" s="14"/>
       <c r="AT39" s="11"/>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="n">
-        <v>0.395833333333333</v>
+    <row r="40" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>0.39583333333333298</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
@@ -3550,9 +3741,7 @@
         <v>15</v>
       </c>
       <c r="AA40" s="14"/>
-      <c r="AC40" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC40" s="12"/>
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
       <c r="AF40" s="13" t="s">
@@ -3564,9 +3753,7 @@
       <c r="AH40" s="13"/>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="14"/>
-      <c r="AL40" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL40" s="12"/>
       <c r="AM40" s="13" t="s">
         <v>15</v>
       </c>
@@ -3584,9 +3771,9 @@
       <c r="AS40" s="14"/>
       <c r="AT40" s="11"/>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="n">
-        <v>0.416666666666667</v>
+    <row r="41" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>0.41666666666666702</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
@@ -3622,9 +3809,7 @@
         <v>15</v>
       </c>
       <c r="AA41" s="14"/>
-      <c r="AC41" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC41" s="12"/>
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
       <c r="AF41" s="13" t="s">
@@ -3638,9 +3823,7 @@
       <c r="AJ41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL41" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL41" s="12"/>
       <c r="AM41" s="13"/>
       <c r="AN41" s="13"/>
       <c r="AO41" s="13" t="s">
@@ -3658,8 +3841,8 @@
       </c>
       <c r="AT41" s="11"/>
     </row>
-    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="n">
+    <row r="42" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
         <v>0.4375</v>
       </c>
       <c r="B42" s="12"/>
@@ -3696,9 +3879,7 @@
         <v>15</v>
       </c>
       <c r="AA42" s="14"/>
-      <c r="AC42" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC42" s="12"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
       <c r="AF42" s="13" t="s">
@@ -3712,9 +3893,7 @@
       <c r="AJ42" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL42" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL42" s="12"/>
       <c r="AM42" s="13"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="13" t="s">
@@ -3732,9 +3911,9 @@
       </c>
       <c r="AT42" s="11"/>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="n">
-        <v>0.458333333333333</v>
+    <row r="43" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>0.45833333333333298</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
@@ -3768,9 +3947,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="14"/>
-      <c r="AC43" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC43" s="12"/>
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
       <c r="AF43" s="13" t="s">
@@ -3786,9 +3963,7 @@
       <c r="AJ43" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL43" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL43" s="12"/>
       <c r="AM43" s="13"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="13" t="s">
@@ -3806,9 +3981,9 @@
       </c>
       <c r="AT43" s="11"/>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="n">
-        <v>0.479166666666667</v>
+    <row r="44" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>0.47916666666666702</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
@@ -3844,9 +4019,7 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="14"/>
-      <c r="AC44" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC44" s="12"/>
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
       <c r="AF44" s="13" t="s">
@@ -3862,9 +4035,7 @@
       <c r="AJ44" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL44" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL44" s="12"/>
       <c r="AM44" s="13"/>
       <c r="AN44" s="15"/>
       <c r="AO44" s="13" t="s">
@@ -3882,8 +4053,8 @@
       </c>
       <c r="AT44" s="11"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="n">
+    <row r="45" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
         <v>0.5</v>
       </c>
       <c r="B45" s="12"/>
@@ -3922,9 +4093,7 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="14"/>
-      <c r="AC45" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC45" s="12"/>
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
       <c r="AF45" s="13" t="s">
@@ -3940,9 +4109,7 @@
       <c r="AJ45" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL45" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL45" s="12"/>
       <c r="AM45" s="13"/>
       <c r="AN45" s="15"/>
       <c r="AO45" s="13" t="s">
@@ -3960,9 +4127,9 @@
       </c>
       <c r="AT45" s="11"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="n">
-        <v>0.520833333333333</v>
+    <row r="46" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>0.52083333333333304</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
@@ -3998,9 +4165,7 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="14"/>
-      <c r="AC46" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC46" s="12"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
       <c r="AF46" s="13" t="s">
@@ -4036,13 +4201,11 @@
       </c>
       <c r="AT46" s="11"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="47" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B47" s="12"/>
       <c r="C47" s="13" t="s">
         <v>15</v>
       </c>
@@ -4088,9 +4251,7 @@
       <c r="AA47" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC47" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC47" s="12"/>
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
       <c r="AF47" s="13" t="s">
@@ -4124,13 +4285,11 @@
       </c>
       <c r="AT47" s="11"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="n">
+    <row r="48" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
         <v>0.5625</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B48" s="12"/>
       <c r="C48" s="13" t="s">
         <v>15</v>
       </c>
@@ -4180,9 +4339,7 @@
       <c r="AA48" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC48" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC48" s="12"/>
       <c r="AD48" s="13" t="s">
         <v>15</v>
       </c>
@@ -4220,13 +4377,11 @@
       </c>
       <c r="AT48" s="11"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="n">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="49" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B49" s="12"/>
       <c r="C49" s="13" t="s">
         <v>15</v>
       </c>
@@ -4280,9 +4435,7 @@
       <c r="AA49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC49" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC49" s="12"/>
       <c r="AD49" s="13" t="s">
         <v>15</v>
       </c>
@@ -4318,13 +4471,11 @@
       </c>
       <c r="AT49" s="11"/>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="n">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="50" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
         <v>15</v>
@@ -4374,9 +4525,7 @@
       <c r="AA50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC50" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC50" s="12"/>
       <c r="AD50" s="13" t="s">
         <v>15</v>
       </c>
@@ -4412,13 +4561,11 @@
       </c>
       <c r="AT50" s="11"/>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="n">
+    <row r="51" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
         <v>0.625</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
         <v>15</v>
@@ -4502,13 +4649,11 @@
       </c>
       <c r="AT51" s="11"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="52" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13" t="s">
         <v>15</v>
@@ -4596,13 +4741,11 @@
       </c>
       <c r="AT52" s="11"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="n">
-        <v>0.666666666666666</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="53" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13" t="s">
         <v>15</v>
@@ -4690,13 +4833,11 @@
       </c>
       <c r="AT53" s="11"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="n">
+    <row r="54" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
         <v>0.6875</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
         <v>15</v>
@@ -4786,13 +4927,11 @@
       </c>
       <c r="AT54" s="11"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="55" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B55" s="12"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13" t="s">
         <v>15</v>
@@ -4844,7 +4983,9 @@
       <c r="AA55" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC55" s="12"/>
+      <c r="AC55" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD55" s="13"/>
       <c r="AE55" s="15"/>
       <c r="AF55" s="13"/>
@@ -4880,9 +5021,9 @@
       </c>
       <c r="AT55" s="11"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="n">
-        <v>0.729166666666666</v>
+    <row r="56" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>0.72916666666666596</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>15</v>
@@ -4938,7 +5079,9 @@
       <c r="AA56" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC56" s="12"/>
+      <c r="AC56" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD56" s="13"/>
       <c r="AE56" s="15"/>
       <c r="AF56" s="13"/>
@@ -4974,8 +5117,8 @@
       </c>
       <c r="AT56" s="11"/>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="n">
+    <row r="57" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
         <v>0.75</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -5034,7 +5177,9 @@
       <c r="AA57" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC57" s="12"/>
+      <c r="AC57" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD57" s="13"/>
       <c r="AE57" s="13" t="s">
         <v>15</v>
@@ -5070,9 +5215,9 @@
       <c r="AS57" s="14"/>
       <c r="AT57" s="11"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="n">
-        <v>0.770833333333333</v>
+    <row r="58" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>0.77083333333333304</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>15</v>
@@ -5134,7 +5279,9 @@
       <c r="AA58" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC58" s="12"/>
+      <c r="AC58" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD58" s="13"/>
       <c r="AE58" s="13" t="s">
         <v>15</v>
@@ -5172,9 +5319,9 @@
       <c r="AS58" s="14"/>
       <c r="AT58" s="11"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="n">
-        <v>0.791666666666666</v>
+    <row r="59" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>0.79166666666666596</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>15</v>
@@ -5238,7 +5385,9 @@
       <c r="AA59" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AC59" s="12"/>
+      <c r="AC59" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD59" s="13"/>
       <c r="AE59" s="13" t="s">
         <v>15</v>
@@ -5274,8 +5423,8 @@
       <c r="AS59" s="14"/>
       <c r="AT59" s="11"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="n">
+    <row r="60" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
         <v>0.8125</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -5376,9 +5525,9 @@
       <c r="AS60" s="14"/>
       <c r="AT60" s="11"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11" t="n">
-        <v>0.833333333333333</v>
+    <row r="61" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>0.83333333333333304</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>15</v>
@@ -5468,9 +5617,9 @@
       <c r="AS61" s="14"/>
       <c r="AT61" s="11"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11" t="n">
-        <v>0.854166666666666</v>
+    <row r="62" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
+        <v>0.85416666666666596</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>15</v>
@@ -5534,8 +5683,8 @@
       <c r="AS62" s="14"/>
       <c r="AT62" s="11"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="n">
+    <row r="63" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
         <v>0.875</v>
       </c>
       <c r="B63" s="12"/>
@@ -5568,7 +5717,9 @@
         <v>15</v>
       </c>
       <c r="AA63" s="14"/>
-      <c r="AC63" s="12"/>
+      <c r="AC63" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
       <c r="AF63" s="13"/>
@@ -5590,9 +5741,9 @@
       <c r="AS63" s="14"/>
       <c r="AT63" s="11"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="n">
-        <v>0.895833333333333</v>
+    <row r="64" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
+        <v>0.89583333333333304</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="13"/>
@@ -5624,7 +5775,9 @@
         <v>15</v>
       </c>
       <c r="AA64" s="14"/>
-      <c r="AC64" s="12"/>
+      <c r="AC64" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AD64" s="13"/>
       <c r="AE64" s="13"/>
       <c r="AF64" s="13"/>
@@ -5646,9 +5799,9 @@
       <c r="AS64" s="14"/>
       <c r="AT64" s="11"/>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="n">
-        <v>0.916666666666666</v>
+    <row r="65" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <v>0.91666666666666596</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="17"/>
@@ -5702,24 +5855,19 @@
       <c r="AS65" s="18"/>
       <c r="AT65" s="11"/>
     </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="D66" s="15"/>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13" t="s">
         <v>18</v>
       </c>
       <c r="M67" s="15"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>